--- a/dist/document/dest/2020/10/doctors/pct.xlsx
+++ b/dist/document/dest/2020/10/doctors/pct.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>35</v>
       </c>
-      <c r="C2" s="1">
-        <v>143850</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>802500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
-        <v>236670</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
-        <v>228140</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
-        <v>99400</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>5200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>56</v>
       </c>
-      <c r="C8" s="1">
-        <v>492800</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -482,7 +461,7 @@
         <v>200</v>
       </c>
       <c r="C9" s="1">
-        <v>2008560</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/pct.xlsx
+++ b/dist/document/dest/2020/10/doctors/pct.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,74 +399,62 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>24150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>184800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Smecta (Diosmectite 3g)</v>
       </c>
       <c r="B4" s="1">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Newbutin (Trimebutine 300mg)</v>
+        <v>Tinidazol 500mg</v>
       </c>
       <c r="B5" s="1">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19320</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Pepsan (Gaiazulene, dimeticone)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Stadpizide (Sulpirid 50mg)</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Vinsalamin (Mesalamin 400mg)</v>
-      </c>
-      <c r="B8" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B9" s="1">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1">
-        <v>NaN</v>
+      <c r="C6" s="1">
+        <v>288470</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>